--- a/create_forecast_basic/future/JTMT/background_files/מיקום מקורי של הקבצים.xlsx
+++ b/create_forecast_basic/future/JTMT/background_files/מיקום מקורי של הקבצים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Data\Forecast\Tools\forecast_git\create_forecast_basic\future\JTMT\background_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6AEB01-A976-4468-BDEE-3742D49EE363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278362F2-CBDB-4AEF-A352-534C7B76EB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>מיקום מקורי</t>
   </si>
@@ -543,6 +543,140 @@
   </si>
   <si>
     <t>230628_id_polygons_for_index.shp</t>
+  </si>
+  <si>
+    <r>
+      <t>W:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rojects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>סעת המונים\מטרו</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_שלב ה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ק</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>בצי עבודה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ת</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>חזיות_דמוגרפיות</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ת</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>חזיות_2050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD7BA7D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\ה</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD16969"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>תפלגות גילים\backround_files</t>
+    </r>
+  </si>
+  <si>
+    <t>create_age_distribution_230719.ipynb</t>
   </si>
 </sst>
 </file>
@@ -684,8 +818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BF3968A-E6A6-4806-8293-4309D7C8C4A9}" name="טבלה1" displayName="טבלה1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:C7" xr:uid="{5BF3968A-E6A6-4806-8293-4309D7C8C4A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BF3968A-E6A6-4806-8293-4309D7C8C4A9}" name="טבלה1" displayName="טבלה1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:C8" xr:uid="{5BF3968A-E6A6-4806-8293-4309D7C8C4A9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6BCCDF95-BDED-4C61-84E1-0F6B5F0AF51D}" name="שם קובץ"/>
     <tableColumn id="2" xr3:uid="{7D45C3C1-4937-4A6F-9B9E-60D2EF57A1C4}" name="מיקום מקורי"/>
@@ -958,21 +1092,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -983,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,6 +1181,14 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
